--- a/报销/张帅交通费报销（3）.xlsx
+++ b/报销/张帅交通费报销（3）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\报销\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\工作\weekly\报销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24D3E4-B36A-4665-A862-B89C9C7FAC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C358CC49-937C-4C84-A3E9-FC5C8983E061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>交通费用报销明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,13 +110,53 @@
   </si>
   <si>
     <t>BD18195</t>
+  </si>
+  <si>
+    <t>BD98757</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD90133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李天乾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀛海驻场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD61220</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD20615</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD62850</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD30052</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD75636</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD69015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +184,13 @@
       <sz val="20"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +260,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -562,24 +619,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.1328125" style="1"/>
+    <col min="11" max="11" width="8.46484375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -589,7 +646,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -609,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -629,7 +686,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -649,7 +706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -669,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -689,7 +746,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -709,7 +766,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -729,7 +786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -749,7 +806,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -769,7 +826,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -789,7 +846,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -809,7 +866,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -829,7 +886,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -849,72 +906,168 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45696.335416666669</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45695.703472222223</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45636.345138888886</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45642.336805555555</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6">
+        <v>99</v>
+      </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45635.667361111111</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45635.769444444442</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45695.752083333333</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7">
+        <v>45637.734722222223</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -922,7 +1075,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -930,7 +1083,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -938,7 +1091,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -946,7 +1099,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -954,7 +1107,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -962,7 +1115,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -970,13 +1123,13 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="4">
         <f>SUM(F3:F29)</f>
-        <v>1264</v>
+        <v>1996</v>
       </c>
     </row>
   </sheetData>
@@ -984,22 +1137,23 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E5 E12:E16 E18:E1048576 E8:E10">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="E1:E5 E12:E16 E8:E10 E18:E19 E21:E1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="E17 E20">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
